--- a/5_results/5_3_mix/feature_importance_set_1.xlsx
+++ b/5_results/5_3_mix/feature_importance_set_1.xlsx
@@ -472,472 +472,472 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04158440195985443</v>
+        <v>0.05026407927954187</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003393694127706248</v>
+        <v>0.005345496519084135</v>
       </c>
       <c r="D2" t="n">
-        <v>5.275982901944052e-06</v>
+        <v>1.512103849797075e-05</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04857206507463916</v>
+        <v>0.06127053049494956</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03459673884506969</v>
+        <v>0.03925762806413417</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>demo-edad</t>
+          <t>eval-TLP-CubCorsi-totalDirectos-PD</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.006355514070498414</v>
+        <v>0.00900401692702002</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0009769548558074331</v>
+        <v>0.001145705454224227</v>
       </c>
       <c r="D3" t="n">
-        <v>6.494059313554633e-05</v>
+        <v>3.079003030006096e-05</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.008367077621556996</v>
+        <v>0.01136304029259992</v>
       </c>
       <c r="G3" t="n">
-        <v>0.004343950519439832</v>
+        <v>0.006644993561440124</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-totalDirectos-PD</t>
+          <t>eval-TLP-FigRey-totalMemoria-PD</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.005599000276605958</v>
+        <v>0.008284542551748441</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001017541886051194</v>
+        <v>0.00119219382826002</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0001253318003696924</v>
+        <v>5.007224868636754e-05</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.007694133083908816</v>
+        <v>0.01073928612200565</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0035038674693031</v>
+        <v>0.005829798981491234</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Stroop-palabras-PD</t>
+          <t>demo-edad</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.003841505838235149</v>
+        <v>0.006980415152198316</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0004410860576823082</v>
+        <v>0.0006449621384533759</v>
       </c>
       <c r="D5" t="n">
-        <v>2.049616645419445e-05</v>
+        <v>8.647006545303167e-06</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004749708127460214</v>
+        <v>0.008308401109597904</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002933303549010083</v>
+        <v>0.005652429194798728</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-9_RCl_CP-PD</t>
+          <t>clin-reservaCognitiva_escolaridad</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.002411080292199119</v>
+        <v>0.005313468734089622</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0005497262929255365</v>
+        <v>0.0004759097539876577</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0003029722053891855</v>
+        <v>7.640751120571614e-06</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003542974327357616</v>
+        <v>0.006293373495322035</v>
       </c>
       <c r="G6" t="n">
-        <v>0.001279186257040623</v>
+        <v>0.004333563972857208</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-totalMemoria-PD</t>
+          <t>eval-TLP-Tavec-10_RL_LP-PD</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.002040096447742168</v>
+        <v>0.004762189187183674</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0007127919645029976</v>
+        <v>0.0006246033965209636</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001530566314386473</v>
+        <v>3.471169183825287e-05</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003507744954485752</v>
+        <v>0.006048256213556707</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0005724479409985838</v>
+        <v>0.00347612216081064</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-Duracion-PD</t>
+          <t>eval-TLP-Tavec-3_RI_AT-PD</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0015382365648692</v>
+        <v>0.004748668375100485</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002583391655439511</v>
+        <v>0.0007318464336011417</v>
       </c>
       <c r="D8" t="n">
-        <v>9.19795089689453e-05</v>
+        <v>6.5606024504717e-05</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002070160477350916</v>
+        <v>0.006255550297077898</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001006312652387483</v>
+        <v>0.003241786453123071</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Stroop-palabrasColor-PD</t>
+          <t>eval-TLP-Stroop-palabras-PD</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0007270523388692273</v>
+        <v>0.003346543477207575</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001407994820809989</v>
+        <v>0.0005046901266435609</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0001606616729593596</v>
+        <v>6.023352062237754e-05</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001016960418529656</v>
+        <v>0.004385707423525516</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0004371442592087992</v>
+        <v>0.002307379530889634</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>demo-genero</t>
+          <t>eval-TLP-FigRey-Duracion-PD</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0006911130857312653</v>
+        <v>0.003244483555140443</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0002988730488532078</v>
+        <v>0.0004666195559518543</v>
       </c>
       <c r="D10" t="n">
-        <v>0.003324438938344789</v>
+        <v>4.995366580871902e-05</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001306496824184546</v>
+        <v>0.004205259670212954</v>
       </c>
       <c r="G10" t="n">
-        <v>7.572934727798466e-05</v>
+        <v>0.002283707440067931</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-8_RL_CP-PD</t>
+          <t>eval-TLP-FigRey-totalCopia-PD</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.000689244656025978</v>
+        <v>0.00292749545461628</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0003749185516183605</v>
+        <v>0.0008507068983325273</v>
       </c>
       <c r="D11" t="n">
-        <v>0.007361541192321254</v>
+        <v>0.0007672456414085912</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001461207135733253</v>
+        <v>0.004679112716301823</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.271782368129738e-05</v>
+        <v>0.001175878192930736</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-totalCopia-PD</t>
+          <t>eval-TLP-CubCorsi-totalinversos-PD</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0006432309375584034</v>
+        <v>0.002523997058018579</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001352088690467999</v>
+        <v>0.0006669944631419651</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0002210914943133378</v>
+        <v>0.0005344674916194201</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0009216278677109319</v>
+        <v>0.00389734787647106</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0003648340074058748</v>
+        <v>0.001150646239566097</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-1_RI_A1-PD</t>
+          <t>demo-genero</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0006349608739541601</v>
+        <v>0.002379699998479223</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000151131177144188</v>
+        <v>0.0005194516712077957</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0003576817897864343</v>
+        <v>0.0002559609044703125</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0009461420565488959</v>
+        <v>0.003449258169081151</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0003237796913594244</v>
+        <v>0.001310141827877295</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-totalinversos-PD</t>
+          <t>eval-TLP-Stroop-palabrasColor-PD</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0006156660933721136</v>
+        <v>0.002333765382643738</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0001361221569887476</v>
+        <v>0.0006489457005047156</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0002689837702314769</v>
+        <v>0.000649064292596846</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0008959434960200934</v>
+        <v>0.003669953549365712</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0003353886907241338</v>
+        <v>0.0009975772159217633</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>clin-reservaCognitiva_escolaridad</t>
+          <t>eval-TLP-Tavec-1_RI_A1-PD</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0006100681075882575</v>
+        <v>0.002222621000216507</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0002051687802818091</v>
+        <v>0.0006444953072315456</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001328320480793325</v>
+        <v>0.0007610498292427847</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>0.001032513461922402</v>
+        <v>0.003549645745678053</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0001876227532541131</v>
+        <v>0.0008955962547549615</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-3_RI_AT-PD</t>
+          <t>eval-TLP-Tavec-11_RCl_LP-PD</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.000442086253870122</v>
+        <v>0.001485576611133288</v>
       </c>
       <c r="C16" t="n">
-        <v>5.805510033411741e-05</v>
+        <v>0.0005527589268349128</v>
       </c>
       <c r="D16" t="n">
-        <v>3.488142233932471e-05</v>
+        <v>0.001929945976616878</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0005616225078648289</v>
+        <v>0.002623714881426645</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0003225499998754152</v>
+        <v>0.0003474383408399305</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-10_RL_LP-PD</t>
+          <t>eval-TLP-CubCorsi-total-PD</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0003082613827708469</v>
+        <v>0.00140652222208637</v>
       </c>
       <c r="C17" t="n">
-        <v>0.000121526066431917</v>
+        <v>0.000324095735231638</v>
       </c>
       <c r="D17" t="n">
-        <v>0.002383135157952939</v>
+        <v>0.0003156108174269337</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>0.000558485233222902</v>
+        <v>0.002073839820407412</v>
       </c>
       <c r="G17" t="n">
-        <v>5.80375323187919e-05</v>
+        <v>0.0007392046237653287</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-2_RI_A5-PD</t>
+          <t>eval-TLP-Tavec-8_RL_CP-PD</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0001597350345090787</v>
+        <v>0.001345668241617282</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0001155781000197108</v>
+        <v>0.0003474274686411498</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01828070102036488</v>
+        <v>0.0004889225830334796</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0003977119399087688</v>
+        <v>0.002061026201507334</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.824187089061144e-05</v>
+        <v>0.0006303102817272294</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-total-PD</t>
+          <t>eval-TLP-Tavec-2_RI_A5-PD</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.000146982894440284</v>
+        <v>0.0008003387532844464</v>
       </c>
       <c r="C19" t="n">
-        <v>7.922796989356868e-05</v>
+        <v>0.0003569199739832786</v>
       </c>
       <c r="D19" t="n">
-        <v>0.007139809830238195</v>
+        <v>0.003708234026031069</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0003101143794980574</v>
+        <v>0.001535241912874308</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.614859061748941e-05</v>
+        <v>6.543559369458424e-05</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-11_RCl_LP-PD</t>
+          <t>eval-TLP-Tavec-9_RCl_CP-PD</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.646125103264236e-05</v>
+        <v>0.0003272325065743375</v>
       </c>
       <c r="C20" t="n">
-        <v>5.607943677474992e-05</v>
+        <v>0.0001135767519338927</v>
       </c>
       <c r="D20" t="n">
-        <v>0.009180858145635736</v>
+        <v>0.001493440053673097</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0002119295864520392</v>
+        <v>0.0005610886086037581</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.900708438675453e-05</v>
+        <v>9.337640454491698e-05</v>
       </c>
     </row>
   </sheetData>

--- a/5_results/5_3_mix/feature_importance_set_1.xlsx
+++ b/5_results/5_3_mix/feature_importance_set_1.xlsx
@@ -468,476 +468,476 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Stroop-color-PD</t>
+          <t>eval-TLP-CubCorsi-total-PD</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05026407927954187</v>
+        <v>0.06982227704680684</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005345496519084135</v>
+        <v>0.01039321559271301</v>
       </c>
       <c r="D2" t="n">
-        <v>1.512103849797075e-05</v>
+        <v>5.721138249470672e-05</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06127053049494956</v>
+        <v>0.09122205160170818</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03925762806413417</v>
+        <v>0.04842250249190549</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-totalDirectos-PD</t>
+          <t>eval-TLP-FigRey-totalCopia-PD</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.00900401692702002</v>
+        <v>0.06488941159362065</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001145705454224227</v>
+        <v>0.01166517921220019</v>
       </c>
       <c r="D3" t="n">
-        <v>3.079003030006096e-05</v>
+        <v>0.0001201063333568776</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01136304029259992</v>
+        <v>0.08890817682145158</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006644993561440124</v>
+        <v>0.04087064636578971</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-totalMemoria-PD</t>
+          <t>eval-TLP-Tavec-3_RI_AT-PD</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.008284542551748441</v>
+        <v>0.04410915703571701</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00119219382826002</v>
+        <v>0.007559336031801422</v>
       </c>
       <c r="D4" t="n">
-        <v>5.007224868636754e-05</v>
+        <v>9.958231169764875e-05</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01073928612200565</v>
+        <v>0.0596739344063234</v>
       </c>
       <c r="G4" t="n">
-        <v>0.005829798981491234</v>
+        <v>0.02854437966511062</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>demo-edad</t>
+          <t>eval-TLP-Stroop-color-PD</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.006980415152198316</v>
+        <v>0.01962034435734396</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0006449621384533759</v>
+        <v>0.003089302327634025</v>
       </c>
       <c r="D5" t="n">
-        <v>8.647006545303167e-06</v>
+        <v>7.137977450315487e-05</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>0.008308401109597904</v>
+        <v>0.02598126054863822</v>
       </c>
       <c r="G5" t="n">
-        <v>0.005652429194798728</v>
+        <v>0.01325942816604971</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>clin-reservaCognitiva_escolaridad</t>
+          <t>eval-TLP-Tavec-11_RCl_LP-PD</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.005313468734089622</v>
+        <v>0.01843283086348033</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0004759097539876577</v>
+        <v>0.001713325480121498</v>
       </c>
       <c r="D6" t="n">
-        <v>7.640751120571614e-06</v>
+        <v>8.854952141003055e-06</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>0.006293373495322035</v>
+        <v>0.0219605917077252</v>
       </c>
       <c r="G6" t="n">
-        <v>0.004333563972857208</v>
+        <v>0.01490507001923547</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-10_RL_LP-PD</t>
+          <t>eval-TLP-Tavec-8_RL_CP-PD</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.004762189187183674</v>
+        <v>0.01427324235773158</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0006246033965209636</v>
+        <v>0.002045460378987821</v>
       </c>
       <c r="D7" t="n">
-        <v>3.471169183825287e-05</v>
+        <v>4.925558273959314e-05</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>0.006048256213556707</v>
+        <v>0.01848487354933435</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00347612216081064</v>
+        <v>0.0100616111661288</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-3_RI_AT-PD</t>
+          <t>eval-TLP-Stroop-palabras-PD</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.004748668375100485</v>
+        <v>0.008610205937080395</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0007318464336011417</v>
+        <v>0.002019018008185974</v>
       </c>
       <c r="D8" t="n">
-        <v>6.5606024504717e-05</v>
+        <v>0.0003376758848644365</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>0.006255550297077898</v>
+        <v>0.01276739192172976</v>
       </c>
       <c r="G8" t="n">
-        <v>0.003241786453123071</v>
+        <v>0.004453019952431027</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Stroop-palabras-PD</t>
+          <t>eval-TLP-FigRey-Duracion-PD</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.003346543477207575</v>
+        <v>0.008078033319915478</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0005046901266435609</v>
+        <v>0.0008990346498903903</v>
       </c>
       <c r="D9" t="n">
-        <v>6.023352062237754e-05</v>
+        <v>1.811030816714332e-05</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004385707423525516</v>
+        <v>0.009929158090019173</v>
       </c>
       <c r="G9" t="n">
-        <v>0.002307379530889634</v>
+        <v>0.006226908549811783</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-Duracion-PD</t>
+          <t>eval-TLP-CubCorsi-totalinversos-PD</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.003244483555140443</v>
+        <v>0.007811081680472243</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004666195559518543</v>
+        <v>0.00125138805322368</v>
       </c>
       <c r="D10" t="n">
-        <v>4.995366580871902e-05</v>
+        <v>7.641640165423603e-05</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004205259670212954</v>
+        <v>0.01038770697808076</v>
       </c>
       <c r="G10" t="n">
-        <v>0.002283707440067931</v>
+        <v>0.005234456382863725</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-totalCopia-PD</t>
+          <t>eval-TLP-Tavec-9_RCl_CP-PD</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.00292749545461628</v>
+        <v>0.007089099009830901</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0008507068983325273</v>
+        <v>0.001139939108421452</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0007672456414085912</v>
+        <v>7.753847958549595e-05</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>0.004679112716301823</v>
+        <v>0.009436249389703513</v>
       </c>
       <c r="G11" t="n">
-        <v>0.001175878192930736</v>
+        <v>0.004741948629958289</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-totalinversos-PD</t>
+          <t>eval-TLP-Stroop-palabrasColor-PD</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.002523997058018579</v>
+        <v>0.006931875032820866</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0006669944631419651</v>
+        <v>0.0004824244025786169</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0005344674916194201</v>
+        <v>2.797022453775677e-06</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00389734787647106</v>
+        <v>0.007925193545544076</v>
       </c>
       <c r="G12" t="n">
-        <v>0.001150646239566097</v>
+        <v>0.005938556520097656</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>demo-genero</t>
+          <t>eval-TLP-FigRey-totalMemoria-PD</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.002379699998479223</v>
+        <v>0.006053288398109036</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0005194516712077957</v>
+        <v>0.0008342365069772626</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0002559609044703125</v>
+        <v>4.221372811394823e-05</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003449258169081151</v>
+        <v>0.007770992896349089</v>
       </c>
       <c r="G13" t="n">
-        <v>0.001310141827877295</v>
+        <v>0.004335583899868983</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Stroop-palabrasColor-PD</t>
+          <t>eval-TLP-CubCorsi-totalDirectos-PD</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.002333765382643738</v>
+        <v>0.005367905177156551</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0006489457005047156</v>
+        <v>0.0005285198579325176</v>
       </c>
       <c r="D14" t="n">
-        <v>0.000649064292596846</v>
+        <v>1.11330553512978e-05</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003669953549365712</v>
+        <v>0.006456134869560342</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0009975772159217633</v>
+        <v>0.00427967548475276</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-1_RI_A1-PD</t>
+          <t>demo-edad</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.002222621000216507</v>
+        <v>0.00525832221549245</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0006444953072315456</v>
+        <v>0.0007476175946953555</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0007610498292427847</v>
+        <v>4.774136575421888e-05</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003549645745678053</v>
+        <v>0.006797677176143461</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0008955962547549615</v>
+        <v>0.00371896725484144</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-11_RCl_LP-PD</t>
+          <t>eval-TLP-Tavec-10_RL_LP-PD</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.001485576611133288</v>
+        <v>0.004582937514036667</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0005527589268349128</v>
+        <v>0.0004791898261062186</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001929945976616878</v>
+        <v>1.413616344381516e-05</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>0.002623714881426645</v>
+        <v>0.005569595989096611</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0003474383408399305</v>
+        <v>0.003596279038976723</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-total-PD</t>
+          <t>eval-TLP-Tavec-1_RI_A1-PD</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.00140652222208637</v>
+        <v>0.003751420091964741</v>
       </c>
       <c r="C17" t="n">
-        <v>0.000324095735231638</v>
+        <v>0.0006017443471892538</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0003156108174269337</v>
+        <v>7.678786121492748e-05</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002073839820407412</v>
+        <v>0.004990420019818146</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0007392046237653287</v>
+        <v>0.002512420164111336</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-8_RL_CP-PD</t>
+          <t>eval-TLP-Tavec-2_RI_A5-PD</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.001345668241617282</v>
+        <v>0.00318322375570792</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0003474274686411498</v>
+        <v>0.0004480220637494012</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0004889225830334796</v>
+        <v>4.586968517389078e-05</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>0.002061026201507334</v>
+        <v>0.004105707377290922</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0006303102817272294</v>
+        <v>0.002260740134124918</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-2_RI_A5-PD</t>
+          <t>clin-reservaCognitiva_escolaridad</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0008003387532844464</v>
+        <v>0.001719779014880607</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0003569199739832786</v>
+        <v>0.0002285127204272125</v>
       </c>
       <c r="D19" t="n">
-        <v>0.003708234026031069</v>
+        <v>3.654073437183325e-05</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001535241912874308</v>
+        <v>0.002190289864621678</v>
       </c>
       <c r="G19" t="n">
-        <v>6.543559369458424e-05</v>
+        <v>0.001249268165139536</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-9_RCl_CP-PD</t>
+          <t>demo-genero</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0003272325065743375</v>
+        <v>0.0007646355272085126</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0001135767519338927</v>
+        <v>0.0003780893647189157</v>
       </c>
       <c r="D20" t="n">
-        <v>0.001493440053673097</v>
+        <v>0.005320423021177852</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0005610886086037581</v>
+        <v>0.001543126754915126</v>
       </c>
       <c r="G20" t="n">
-        <v>9.337640454491698e-05</v>
+        <v>-1.38557004981004e-05</v>
       </c>
     </row>
   </sheetData>
